--- a/관리산출물PMP:PSP/PSP/김예지/신수동크러셔_psp_20150531_김예지.xlsx
+++ b/관리산출물PMP:PSP/PSP/김예지/신수동크러셔_psp_20150531_김예지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyeoj\Desktop\융종설\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E770ED7E-AE24-42E0-90FF-9A35EEE85C6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE05E4CE-E750-44DF-8C86-73F3BA53355A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Table C16Time Recording Log</t>
   </si>
@@ -214,6 +214,86 @@
   </si>
   <si>
     <t>데이터 연계방안 리서치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 준비</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표 준비 및 피드백</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.27</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SRS 최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수정</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른조 SRS 리뷰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.07</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>추천알고리즘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 리서치 및 이니셜 데이터 검토</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.08</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천알고리즘 리서치 및 구현 명세</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -360,9 +440,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -370,6 +447,10 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -588,24 +669,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -682,7 +763,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="11">
@@ -697,12 +778,12 @@
       <c r="E7" s="9">
         <v>100</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="11">
@@ -722,7 +803,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="11">
@@ -737,12 +818,12 @@
       <c r="E9" s="12">
         <v>75</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="11">
@@ -757,12 +838,12 @@
       <c r="E10" s="12">
         <v>80</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="11">
@@ -777,12 +858,12 @@
       <c r="E11" s="12">
         <v>75</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="11">
@@ -797,12 +878,12 @@
       <c r="E12" s="12">
         <v>90</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="11">
@@ -817,65 +898,137 @@
       <c r="E13" s="12">
         <v>180</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="11"/>
+    <row r="14" spans="1:6" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2200</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2400</v>
+      </c>
+      <c r="D14" s="12">
+        <v>20</v>
+      </c>
+      <c r="E14" s="12">
+        <v>100</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="11"/>
+      <c r="A15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1800</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1900</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>60</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
+      <c r="A16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2130</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2230</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>60</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="11"/>
+      <c r="A17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2200</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2330</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>90</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2200</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2400</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>120</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1500</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1900</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>240</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
@@ -1004,6 +1157,14 @@
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
